--- a/Dev/PythonDev/Testing/Augmented Reality/Rotation.xlsx
+++ b/Dev/PythonDev/Testing/Augmented Reality/Rotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\Augmented Reality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Testing\Augmented Reality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E5E3D-3BFA-49CC-9BED-3A102BC30623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D0B52-0B97-427C-9E7F-E03A6D3870DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20370" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Takanami</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Maximum Rotation Angle for Recognition</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Maximum Model Targets' Orientation for Recognition</a:t>
+              <a:t>Maximum Rotation Angle for Recognition for Modell Targets</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -259,11 +262,67 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$22</c:f>
+              <c:f>Sheet1!$A$13:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Abessinia</c:v>
                 </c:pt>
@@ -293,58 +352,65 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>CCBIll</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Coffee Machine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$22</c:f>
+              <c:f>Sheet1!$B$13:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>270</c:v>
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFA7-45B1-A33E-F9C8E17486CA}"/>
+              <c16:uniqueId val="{00000000-C6B5-4D0A-96AE-95689F893383}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -352,11 +418,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1078080607"/>
-        <c:axId val="1046395951"/>
+        <c:axId val="2128060799"/>
+        <c:axId val="1381183039"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1078080607"/>
+        <c:axId val="2128060799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,13 +448,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Model</a:t>
+                  <a:t>Model Targets</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Target</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -456,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1046395951"/>
+        <c:crossAx val="1381183039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -464,7 +525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1046395951"/>
+        <c:axId val="1381183039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,13 +565,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Image</a:t>
+                  <a:t>Orientation</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Orientation</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -572,7 +628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1078080607"/>
+        <c:crossAx val="2128060799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,22 +1236,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>536864</xdr:colOff>
+      <xdr:colOff>387928</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>316751</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456799B7-31E2-4564-952C-7ACD0D249534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC321B8-CB42-4F45-B9E3-F82D68741BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A30" sqref="A29:A30"/>
+      <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1551,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1615,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1631,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,7 +1719,15 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>270</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
